--- a/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
+++ b/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
@@ -1124,11 +1124,11 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="C1" s="23" t="n">
-        <v>44246</v>
+        <v>44307</v>
       </c>
       <c r="F1" s="22" t="inlineStr">
         <is>
